--- a/data_process/xlsx/jongno_C4_processed.xlsx
+++ b/data_process/xlsx/jongno_C4_processed.xlsx
@@ -576,7 +576,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2023-08-27 22:30:29</t>
+          <t>2023-09-05 15:36:57</t>
         </is>
       </c>
       <c r="N2" t="n">
@@ -650,7 +650,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2023-08-27 22:30:29</t>
+          <t>2023-09-05 15:36:57</t>
         </is>
       </c>
       <c r="N3" t="n">
@@ -724,7 +724,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2023-08-27 22:30:29</t>
+          <t>2023-09-05 15:36:57</t>
         </is>
       </c>
       <c r="N4" t="n">
@@ -798,7 +798,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2023-08-27 22:30:29</t>
+          <t>2023-09-05 15:36:57</t>
         </is>
       </c>
       <c r="N5" t="n">
@@ -872,7 +872,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2023-08-27 22:30:29</t>
+          <t>2023-09-05 15:36:57</t>
         </is>
       </c>
       <c r="N6" t="n">
@@ -946,7 +946,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2023-08-27 22:30:29</t>
+          <t>2023-09-05 15:36:57</t>
         </is>
       </c>
       <c r="N7" t="n">
@@ -1020,7 +1020,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2023-08-27 22:30:29</t>
+          <t>2023-09-05 15:36:57</t>
         </is>
       </c>
       <c r="N8" t="n">
@@ -1094,7 +1094,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2023-08-27 22:30:29</t>
+          <t>2023-09-05 15:36:57</t>
         </is>
       </c>
       <c r="N9" t="n">
@@ -1168,7 +1168,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>2023-08-27 22:30:29</t>
+          <t>2023-09-05 15:36:57</t>
         </is>
       </c>
       <c r="N10" t="n">
@@ -1242,7 +1242,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>2023-08-27 22:30:29</t>
+          <t>2023-09-05 15:36:57</t>
         </is>
       </c>
       <c r="N11" t="n">
@@ -1316,7 +1316,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2023-08-27 22:30:29</t>
+          <t>2023-09-05 15:36:57</t>
         </is>
       </c>
       <c r="N12" t="n">
@@ -1390,7 +1390,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2023-08-27 22:30:29</t>
+          <t>2023-09-05 15:36:57</t>
         </is>
       </c>
       <c r="N13" t="n">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2023-08-27 22:30:29</t>
+          <t>2023-09-05 15:36:57</t>
         </is>
       </c>
       <c r="N14" t="n">
@@ -1538,7 +1538,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>2023-08-27 22:30:29</t>
+          <t>2023-09-05 15:36:57</t>
         </is>
       </c>
       <c r="N15" t="n">
@@ -1612,7 +1612,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>2023-08-27 22:30:29</t>
+          <t>2023-09-05 15:36:57</t>
         </is>
       </c>
       <c r="N16" t="n">
@@ -1686,7 +1686,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>2023-08-27 22:30:29</t>
+          <t>2023-09-05 15:36:57</t>
         </is>
       </c>
       <c r="N17" t="n">

--- a/data_process/xlsx/jongno_C4_processed.xlsx
+++ b/data_process/xlsx/jongno_C4_processed.xlsx
@@ -571,12 +571,12 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1987435465/home?entry=bmp&amp;from=PLACE_AD&amp;n_ad_group_type=10&amp;n_query=%EC%A2%85%EB%A1%9C%EB%B3%B4%EB%93%9C%EA%B2%8C%EC%9E%84%EC%B9%B4%ED%8E%98&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142879893</t>
+          <t>https://pcmap.place.naver.com/place/1987435465/home?entry=bmp&amp;from=PLACE_AD&amp;n_ad_group_type=10&amp;n_query=%EC%A2%85%EB%A1%9C%EB%B3%B4%EB%93%9C%EA%B2%8C%EC%9E%84%EC%B9%B4%ED%8E%98&amp;from=map&amp;fromPanelNum=2&amp;x=126.98538857845901&amp;y=37.56941750703431&amp;timestamp=202309071827</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2023-09-05 15:36:57</t>
+          <t>2023-09-07 18:27:03</t>
         </is>
       </c>
       <c r="N2" t="n">
@@ -592,7 +592,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>보드게임카페 레드버튼 대학로점</t>
+          <t>퍼스트보드게임카페 대학로점</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -607,11 +607,11 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.41</t>
+          <t>4.93</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>221</v>
+        <v>0</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -625,12 +625,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>대명길</t>
+          <t>대학로</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>9 4층</t>
+          <t>130 3층</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -640,33 +640,33 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>02-763-3799</t>
+          <t>0507-1482-1259</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1806183610/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142889025</t>
+          <t>https://pcmap.place.naver.com/place/1518228901/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.0021374&amp;y=37.582893&amp;timestamp=202309071827</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2023-09-05 15:36:57</t>
+          <t>2023-09-07 18:27:03</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>127.0009767</v>
+        <v>127.0021374</v>
       </c>
       <c r="O3" t="n">
-        <v>37.5833797</v>
+        <v>37.582893</v>
       </c>
       <c r="P3" t="n">
-        <v>1806183610</v>
+        <v>1518228901</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>퍼스트보드게임카페 대학로점</t>
+          <t>보드게임카페 레드버튼 대학로점</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.93</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -699,12 +699,12 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>대학로</t>
+          <t>대명길</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>130 3층</t>
+          <t>9 4층</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -714,27 +714,27 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0507-1482-1259</t>
+          <t>02-763-3799</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1518228901/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142898357</t>
+          <t>https://pcmap.place.naver.com/place/1806183610/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.00098711510178&amp;y=37.583286089241945&amp;timestamp=202309071827</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2023-09-05 15:36:57</t>
+          <t>2023-09-07 18:27:03</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>127.0021374</v>
+        <v>127.0009767</v>
       </c>
       <c r="O4" t="n">
-        <v>37.582893</v>
+        <v>37.5833797</v>
       </c>
       <c r="P4" t="n">
-        <v>1518228901</v>
+        <v>1806183610</v>
       </c>
     </row>
     <row r="5">
@@ -755,11 +755,11 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.93</t>
+          <t>4.41</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>221</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -793,12 +793,12 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1987435465/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142907867</t>
+          <t>https://pcmap.place.naver.com/place/1987435465/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.98538857845901&amp;y=37.56941750703431&amp;timestamp=202309071827</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2023-09-05 15:36:57</t>
+          <t>2023-09-07 18:27:03</t>
         </is>
       </c>
       <c r="N5" t="n">
@@ -814,7 +814,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>보드게임카페 보드스토리</t>
+          <t>플렉스 보드게임카페</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -829,11 +829,11 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4.41</t>
+          <t>4.67</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>221</v>
+        <v>302</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -847,12 +847,12 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>종로12길</t>
+          <t>종로</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>16 대성빌딩</t>
+          <t>119 3층 FLEX 보드게임카페</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -862,33 +862,33 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>02-732-5400</t>
+          <t>0507-1485-0369</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/33410043/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142916993</t>
+          <t>https://pcmap.place.naver.com/place/1731558575/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9908641&amp;y=37.5705766&amp;timestamp=202309071827</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2023-09-05 15:36:57</t>
+          <t>2023-09-07 18:27:03</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>126.9856039</v>
+        <v>126.9908437</v>
       </c>
       <c r="O6" t="n">
-        <v>37.5693367</v>
+        <v>37.5706361</v>
       </c>
       <c r="P6" t="n">
-        <v>33410043</v>
+        <v>1731558575</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>플렉스 보드게임카페</t>
+          <t>보드게임카페 보드스토리</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -907,7 +907,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -921,12 +921,12 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>종로</t>
+          <t>종로12길</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>119 3층 FLEX 보드게임카페</t>
+          <t>16 대성빌딩</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -936,27 +936,27 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0507-1485-0369</t>
+          <t>02-732-5400</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1731558575/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142926271</t>
+          <t>https://pcmap.place.naver.com/place/33410043/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9855816&amp;y=37.569343399999994&amp;timestamp=202309071827</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2023-09-05 15:36:57</t>
+          <t>2023-09-07 18:27:03</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>126.9908437</v>
+        <v>126.9856039</v>
       </c>
       <c r="O7" t="n">
-        <v>37.5706361</v>
+        <v>37.5693367</v>
       </c>
       <c r="P7" t="n">
-        <v>1731558575</v>
+        <v>33410043</v>
       </c>
     </row>
     <row r="8">
@@ -977,11 +977,11 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4.67</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>297</v>
+        <v>53</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -1015,12 +1015,12 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1050017666/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142935454</t>
+          <t>https://pcmap.place.naver.com/place/1050017666/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9892169&amp;y=37.5707949&amp;timestamp=202309071827</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2023-09-05 15:36:57</t>
+          <t>2023-09-07 18:27:03</t>
         </is>
       </c>
       <c r="N8" t="n">
@@ -1036,7 +1036,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>블랙조커 동묘점</t>
+          <t>펀타임 대학로점</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1051,11 +1051,11 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.16</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -1069,12 +1069,12 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>종로</t>
+          <t>대명길</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>336 2층</t>
+          <t>24 5층</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1084,33 +1084,33 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>0507-1432-9077</t>
+          <t>070-7568-0327</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1695028416/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142944632</t>
+          <t>https://pcmap.place.naver.com/place/33907132/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.00025470000001&amp;y=37.58344609999999&amp;timestamp=202309071827</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2023-09-05 15:36:57</t>
+          <t>2023-09-07 18:27:03</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>127.0150289</v>
+        <v>127.0002521</v>
       </c>
       <c r="O9" t="n">
-        <v>37.5725441</v>
+        <v>37.5834381</v>
       </c>
       <c r="P9" t="n">
-        <v>1695028416</v>
+        <v>33907132</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>히어로보드게임카페 대학로점</t>
+          <t>블랙문</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1129,7 +1129,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>443</v>
+        <v>21</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -1138,17 +1138,17 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>종로구</t>
+          <t>서대문구</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>대학로10길</t>
+          <t>통일로</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>12 2층 히어로보드게임카페</t>
+          <t>105 2층 블랙문</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1158,33 +1158,33 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>0507-1393-2901</t>
+          <t>010-5291-2114</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1868073958/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142955622</t>
+          <t>https://pcmap.place.naver.com/place/1020105286/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9675889&amp;y=37.5643583&amp;timestamp=202309071828</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>2023-09-05 15:36:57</t>
+          <t>2023-09-07 18:27:03</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>127.0028255</v>
+        <v>126.9676128</v>
       </c>
       <c r="O10" t="n">
-        <v>37.5816161</v>
+        <v>37.5643236</v>
       </c>
       <c r="P10" t="n">
-        <v>1868073958</v>
+        <v>1020105286</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>펀타임 대학로점</t>
+          <t>히어로보드게임카페 대학로점</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1199,11 +1199,11 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4.16</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>171</v>
+        <v>481</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -1217,12 +1217,12 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>대명길</t>
+          <t>대학로10길</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>24 5층</t>
+          <t>12 2층 히어로보드게임카페</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1232,33 +1232,33 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>070-7568-0327</t>
+          <t>0507-1393-2901</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/33907132/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142966493</t>
+          <t>https://pcmap.place.naver.com/place/1868073958/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.0027888&amp;y=37.5816693&amp;timestamp=202309071828</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>2023-09-05 15:36:57</t>
+          <t>2023-09-07 18:27:03</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>127.0002521</v>
+        <v>127.0028255</v>
       </c>
       <c r="O11" t="n">
-        <v>37.5834381</v>
+        <v>37.5816161</v>
       </c>
       <c r="P11" t="n">
-        <v>33907132</v>
+        <v>1868073958</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>블랙문</t>
+          <t>블랙조커 동묘점</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1273,11 +1273,11 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>4.16</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>171</v>
+        <v>3</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -1286,17 +1286,17 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>서대문구</t>
+          <t>종로구</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>통일로</t>
+          <t>종로</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>105 2층 블랙문</t>
+          <t>336 2층</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1306,27 +1306,27 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>010-5291-2114</t>
+          <t>0507-1432-9077</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1020105286/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142976629</t>
+          <t>https://pcmap.place.naver.com/place/1695028416/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.0150048&amp;y=37.5726259&amp;timestamp=202309071828</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2023-09-05 15:36:57</t>
+          <t>2023-09-07 18:27:03</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>126.9676128</v>
+        <v>127.0150289</v>
       </c>
       <c r="O12" t="n">
-        <v>37.5643236</v>
+        <v>37.5725441</v>
       </c>
       <c r="P12" t="n">
-        <v>1020105286</v>
+        <v>1695028416</v>
       </c>
     </row>
     <row r="13">
@@ -1351,7 +1351,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -1385,12 +1385,12 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1038810896/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142985632</t>
+          <t>https://pcmap.place.naver.com/place/1038810896/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9844144&amp;y=37.5636223&amp;timestamp=202309071828</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2023-09-05 15:36:57</t>
+          <t>2023-09-07 18:27:03</t>
         </is>
       </c>
       <c r="N13" t="n">
@@ -1406,7 +1406,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>보드게임 101</t>
+          <t>레드다이스</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1421,11 +1421,11 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>4.24</t>
+          <t>4.22</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>197</v>
+        <v>41</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1439,12 +1439,12 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>새문안로3길</t>
+          <t>창경궁로29길</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>23 경희궁의아침4단지 B2 107호</t>
+          <t>25 명륜빌딩 명륜빌딩 2층 202호</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1454,33 +1454,33 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>0507-1393-0688</t>
+          <t>02-765-7455</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1975804552/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142996528</t>
+          <t>https://pcmap.place.naver.com/place/35608499/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9974041&amp;y=37.5837121&amp;timestamp=202309071828</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2023-09-05 15:36:57</t>
+          <t>2023-09-07 18:27:03</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>126.9722259</v>
+        <v>126.9974355</v>
       </c>
       <c r="O14" t="n">
-        <v>37.5726215</v>
+        <v>37.5837577</v>
       </c>
       <c r="P14" t="n">
-        <v>1975804552</v>
+        <v>35608499</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>레드다이스</t>
+          <t>보드게임 101</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1499,7 +1499,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1513,12 +1513,12 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>창경궁로29길</t>
+          <t>새문안로3길</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>25 명륜빌딩 명륜빌딩 2층 202호</t>
+          <t>23 경희궁의아침4단지 B2 107호</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1528,27 +1528,27 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>02-765-7455</t>
+          <t>0507-1393-0688</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/35608499/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143006272</t>
+          <t>https://pcmap.place.naver.com/place/1975804552/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9724575&amp;y=37.5724333&amp;timestamp=202309071828</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>2023-09-05 15:36:57</t>
+          <t>2023-09-07 18:27:03</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>126.9974355</v>
+        <v>126.9722259</v>
       </c>
       <c r="O15" t="n">
-        <v>37.5837577</v>
+        <v>37.5726215</v>
       </c>
       <c r="P15" t="n">
-        <v>35608499</v>
+        <v>1975804552</v>
       </c>
     </row>
     <row r="16">
@@ -1569,11 +1569,11 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>4.22</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1607,12 +1607,12 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1428465543/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143015574</t>
+          <t>https://pcmap.place.naver.com/place/1428465543/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.0151137&amp;y=37.5665317&amp;timestamp=202309071828</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>2023-09-05 15:36:57</t>
+          <t>2023-09-07 18:27:03</t>
         </is>
       </c>
       <c r="N16" t="n">
@@ -1681,12 +1681,12 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1793763614/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143024541</t>
+          <t>https://pcmap.place.naver.com/place/1793763614/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9963695&amp;y=37.5588368&amp;timestamp=202309071828</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>2023-09-05 15:36:57</t>
+          <t>2023-09-07 18:27:03</t>
         </is>
       </c>
       <c r="N17" t="n">
